--- a/src/analysis_examples/circadb/results_lomb/cosinor_10474181_abtb2_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10474181_abtb2_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.23342152527763227, 0.36682732087216896]</t>
+          <t>[0.2362279164340897, 0.36402092971571154]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6.122361506655238e-09</v>
+        <v>2.917575514516102e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>6.122361506655238e-09</v>
+        <v>2.917575514516102e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.3396316382259235</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3390833988094866, 0.4126537343287701]</t>
+          <t>[0.33907373899907167, 0.41266339413918507]</t>
         </is>
       </c>
       <c r="U2" t="n">
